--- a/working/fox/eggdisp.BF.xlsx
+++ b/working/fox/eggdisp.BF.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorjaelliott/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorjaelliott/Desktop/Repositories/LCAdata/working/fox/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A81D816-7FCC-1743-A575-AB116345AD5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D011A08F-462E-9947-A001-9E1F6DED3D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40060" yWindow="540" windowWidth="23220" windowHeight="14300" xr2:uid="{2B86E957-A19E-9040-9ABF-0441B63CE8A5}"/>
+    <workbookView xWindow="5200" yWindow="3580" windowWidth="15920" windowHeight="16300" xr2:uid="{2B86E957-A19E-9040-9ABF-0441B63CE8A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>cross</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>P2</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -438,7 +441,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -476,6 +479,9 @@
       <c r="C2">
         <v>1.6986301369863014E-3</v>
       </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
       <c r="E2">
         <v>1</v>
       </c>
@@ -496,6 +502,9 @@
       <c r="C3">
         <v>1.6986301369863014E-3</v>
       </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
       <c r="E3">
         <v>1</v>
       </c>
@@ -510,6 +519,9 @@
       <c r="C4">
         <v>1.6986301369863014E-3</v>
       </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
       <c r="E4">
         <v>1</v>
       </c>
@@ -524,6 +536,9 @@
       <c r="C5">
         <v>3.8356164383561639E-3</v>
       </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
       <c r="E5">
         <v>1</v>
       </c>
@@ -544,6 +559,9 @@
       <c r="C6">
         <v>1.6986301369863014E-3</v>
       </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
       <c r="E6">
         <v>1</v>
       </c>
@@ -564,6 +582,9 @@
       <c r="C7">
         <v>2.9589041095890414E-3</v>
       </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
       <c r="E7">
         <v>1</v>
       </c>
@@ -584,6 +605,9 @@
       <c r="C8">
         <v>1.6986301369863014E-3</v>
       </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
       <c r="E8">
         <v>1</v>
       </c>
@@ -598,6 +622,9 @@
       <c r="C9">
         <v>3.9452054794520547E-3</v>
       </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
       <c r="E9">
         <v>1</v>
       </c>
@@ -611,6 +638,9 @@
       </c>
       <c r="C10">
         <v>2.8493150684931511E-3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
       </c>
       <c r="E10">
         <v>1</v>

--- a/working/fox/eggdisp.BF.xlsx
+++ b/working/fox/eggdisp.BF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorjaelliott/Desktop/Repositories/LCAdata/working/fox/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D011A08F-462E-9947-A001-9E1F6DED3D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C40A756-4D04-2E42-A0D2-C8EC131555DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5200" yWindow="3580" windowWidth="15920" windowHeight="16300" xr2:uid="{2B86E957-A19E-9040-9ABF-0441B63CE8A5}"/>
+    <workbookView xWindow="5200" yWindow="540" windowWidth="15920" windowHeight="16300" xr2:uid="{2B86E957-A19E-9040-9ABF-0441B63CE8A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -441,7 +441,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -485,12 +485,6 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -542,12 +536,6 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5">
-        <v>9</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -565,12 +553,6 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>9</v>
-      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -588,12 +570,6 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-      <c r="G7">
-        <v>4</v>
-      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -644,12 +620,6 @@
       </c>
       <c r="E10">
         <v>1</v>
-      </c>
-      <c r="F10">
-        <v>9</v>
-      </c>
-      <c r="G10">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
